--- a/data/outputs/OR_altmetric/18.xlsx
+++ b/data/outputs/OR_altmetric/18.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE61"/>
+  <dimension ref="A1:CF61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,11 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>citeulike</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
         </is>
       </c>
     </row>
@@ -999,6 +1004,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1248,6 +1256,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1497,6 +1508,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1754,6 +1768,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1993,6 +2010,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2236,6 +2256,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2485,6 +2508,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2734,6 +2760,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2989,6 +3018,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3230,6 +3262,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3449,6 +3484,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3706,6 +3744,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3955,6 +3996,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4204,6 +4248,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4449,6 +4496,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4698,6 +4748,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4947,6 +5000,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5198,6 +5254,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>4.85</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5447,6 +5506,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5694,6 +5756,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5929,6 +5994,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6202,6 +6270,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6477,6 +6548,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6744,6 +6818,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7011,6 +7088,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7284,6 +7364,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7561,6 +7644,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7834,6 +7920,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8107,6 +8196,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8386,6 +8478,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8605,6 +8700,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8846,6 +8944,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9093,6 +9194,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9336,6 +9440,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9579,6 +9686,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9822,6 +9932,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10071,6 +10184,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10320,6 +10436,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10569,6 +10688,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10816,6 +10938,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11035,6 +11160,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11280,6 +11408,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11525,6 +11656,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11774,6 +11908,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12023,6 +12160,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12272,6 +12412,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12525,6 +12668,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12770,6 +12916,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13017,6 +13166,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13258,6 +13410,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13477,6 +13632,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13716,6 +13874,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13957,6 +14118,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14214,6 +14378,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14469,6 +14636,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14712,6 +14882,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14959,6 +15132,9 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15202,6 +15378,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15447,6 +15626,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15696,6 +15878,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
